--- a/datasets/wine/wine.xlsx
+++ b/datasets/wine/wine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\datasets\wine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4E3525-E391-43B3-A494-503A419CC71D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF694A5F-675F-4AD3-B838-DF42A13DE19E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86520" yWindow="60" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-84" yWindow="-84" windowWidth="23208" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wine" sheetId="1" r:id="rId1"/>
@@ -661,6 +661,11 @@
               <cx:v>pH</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </cx:spPr>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r"/>
@@ -1278,8 +1283,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10277475" y="0"/>
-              <a:ext cx="4564168" cy="2693881"/>
+              <a:off x="10291233" y="0"/>
+              <a:ext cx="4573693" cy="2741506"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1612,7 +1617,7 @@
   <dimension ref="A1:L1600"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
